--- a/resources/refine/pacronyms.xlsx
+++ b/resources/refine/pacronyms.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>term</t>
   </si>
@@ -693,14 +693,21 @@
   </si>
   <si>
     <t>thenoyltrifluoroacetone</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -733,12 +740,54 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -767,7 +816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,6 +831,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -802,10 +879,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C135" activeCellId="0" sqref="B135:C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -860,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>11</v>
@@ -894,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>29</v>
@@ -978,7 +1055,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -1006,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1138,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>50</v>
@@ -1117,7 +1194,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1219,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1230,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>59</v>
@@ -1170,7 +1247,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1258,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1269,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>65</v>
@@ -1209,7 +1286,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>69</v>
@@ -1226,7 +1303,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1314,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1342,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1406,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>90</v>
@@ -1346,7 +1423,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1448,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>98</v>
@@ -1388,7 +1465,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1476,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1487,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1498,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1509,7 @@
         <v>105</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>106</v>
@@ -1449,7 +1526,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1537,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,7 +1548,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1559,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1570,7 @@
         <v>105</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1581,7 @@
         <v>105</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1592,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,7 +1603,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1614,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1625,7 @@
         <v>105</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1636,7 @@
         <v>105</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1647,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>121</v>
@@ -1587,7 +1664,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>125</v>
@@ -1604,7 +1681,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,7 +1692,7 @@
         <v>124</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,7 +1703,7 @@
         <v>124</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,7 +1714,7 @@
         <v>124</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1725,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +1736,7 @@
         <v>124</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1747,7 @@
         <v>124</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1758,7 @@
         <v>124</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1769,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1780,7 @@
         <v>124</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +1791,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1802,7 @@
         <v>124</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,7 +1813,7 @@
         <v>140</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>141</v>
@@ -1753,7 +1830,7 @@
         <v>140</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1863,7 @@
         <v>140</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1874,7 @@
         <v>140</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1885,7 @@
         <v>140</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1896,7 @@
         <v>140</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1907,7 @@
         <v>140</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,7 +1918,7 @@
         <v>140</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,7 +1929,7 @@
         <v>140</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1940,7 @@
         <v>140</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +1951,7 @@
         <v>140</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1962,7 @@
         <v>140</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,7 +1973,7 @@
         <v>140</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,7 +1984,7 @@
         <v>158</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>159</v>
@@ -1924,7 +2001,7 @@
         <v>158</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +2012,7 @@
         <v>158</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +2023,7 @@
         <v>158</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +2034,7 @@
         <v>158</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2059,7 @@
         <v>169</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>170</v>
@@ -1999,7 +2076,7 @@
         <v>169</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +2087,7 @@
         <v>169</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,7 +2098,7 @@
         <v>169</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,7 +2109,7 @@
         <v>176</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>177</v>
@@ -2049,7 +2126,7 @@
         <v>176</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>180</v>
@@ -2066,7 +2143,7 @@
         <v>176</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2154,7 @@
         <v>176</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2165,7 @@
         <v>176</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,7 +2176,7 @@
         <v>176</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,7 +2187,7 @@
         <v>176</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2198,7 @@
         <v>176</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2209,7 @@
         <v>176</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,7 +2220,7 @@
         <v>176</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,7 +2231,7 @@
         <v>176</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2253,7 @@
         <v>176</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2264,7 @@
         <v>176</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,7 +2275,7 @@
         <v>176</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,7 +2286,7 @@
         <v>176</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2297,7 @@
         <v>196</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>197</v>
@@ -2237,7 +2314,7 @@
         <v>196</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,7 +2325,7 @@
         <v>196</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,7 +2347,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2358,7 @@
         <v>196</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2369,7 @@
         <v>196</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,7 +2380,7 @@
         <v>196</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2391,7 @@
         <v>196</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,7 +2447,7 @@
         <v>217</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>218</v>
@@ -2401,7 +2478,7 @@
         <v>217</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2489,7 @@
         <v>217</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,13 +2500,49 @@
         <v>223</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>224</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <f aca="false">COUNTIF(C2:C130,"=1")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="7" t="n">
+        <f aca="false">COUNTIF(C3:C131,"=-1")</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="7" t="n">
+        <f aca="false">COUNTIF(C4:C132,"=0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="10" t="n">
+        <f aca="false">SUM(C132:C134)</f>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
